--- a/data/countries/haiti.xlsx
+++ b/data/countries/haiti.xlsx
@@ -1,16 +1,16 @@
 
 <file path=xl/workbook.xml><?xml version="1.0" encoding="utf-8"?>
 <workbook xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x15="http://schemas.microsoft.com/office/spreadsheetml/2010/11/main" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr6="http://schemas.microsoft.com/office/spreadsheetml/2016/revision6" xmlns:xr10="http://schemas.microsoft.com/office/spreadsheetml/2016/revision10" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" mc:Ignorable="x15 xr xr6 xr10 xr2">
-  <fileVersion appName="xl" lastEdited="7" lowestEdited="7" rupBuild="10711"/>
+  <fileVersion appName="xl" lastEdited="7" lowestEdited="7" rupBuild="10409"/>
   <workbookPr defaultThemeVersion="166925"/>
   <mc:AlternateContent xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006">
     <mc:Choice Requires="x15">
-      <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="/Volumes/home/BlenmanSandbox-CC1407-MEDCCC/AP 2023 Spr/data/countries/"/>
+      <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="/Users/andreipascu/Documents/Yale University/Years/Senior/Spring/CSEC 491/local/data/countries/"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{44552CEB-D603-1F4D-B043-362ED439071A}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{BC9B0B10-EE32-C443-B494-703F88E34875}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
-    <workbookView xWindow="32620" yWindow="880" windowWidth="18000" windowHeight="26400" activeTab="1" xr2:uid="{A00892F2-77B1-0143-89C4-5296CC556B66}"/>
+    <workbookView xWindow="0" yWindow="500" windowWidth="28800" windowHeight="16560" activeTab="1" xr2:uid="{A00892F2-77B1-0143-89C4-5296CC556B66}"/>
   </bookViews>
   <sheets>
     <sheet name="Overview" sheetId="1" r:id="rId1"/>
@@ -21,12 +21,20 @@
     <ext xmlns:x15="http://schemas.microsoft.com/office/spreadsheetml/2010/11/main" uri="{140A7094-0E35-4892-8432-C4D2E57EDEB5}">
       <x15:workbookPr chartTrackingRefBase="1"/>
     </ext>
+    <ext xmlns:xcalcf="http://schemas.microsoft.com/office/spreadsheetml/2018/calcfeatures" uri="{B58B0392-4F1F-4190-BB64-5DF3571DCE5F}">
+      <xcalcf:calcFeatures>
+        <xcalcf:feature name="microsoft.com:RD"/>
+        <xcalcf:feature name="microsoft.com:FV"/>
+        <xcalcf:feature name="microsoft.com:LET_WF"/>
+        <xcalcf:feature name="microsoft.com:LAMBDA_WF"/>
+      </xcalcf:calcFeatures>
+    </ext>
   </extLst>
 </workbook>
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="40" uniqueCount="34">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="46" uniqueCount="35">
   <si>
     <t>General</t>
   </si>
@@ -112,9 +120,6 @@
     <t>inbtou_volume_sd</t>
   </si>
   <si>
-    <t>2020 (yearly)</t>
-  </si>
-  <si>
     <t>Haiti</t>
   </si>
   <si>
@@ -128,6 +133,12 @@
   </si>
   <si>
     <t>https://www.statista.com/statistics/816425/haiti-number-of-tourist-arrivals</t>
+  </si>
+  <si>
+    <t>2020-2022 (yearly)</t>
+  </si>
+  <si>
+    <t>NA</t>
   </si>
 </sst>
 </file>
@@ -573,7 +584,7 @@
   <dimension ref="B1:E22"/>
   <sheetViews>
     <sheetView workbookViewId="0">
-      <selection activeCell="E16" sqref="E16"/>
+      <selection activeCell="E8" sqref="E8"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr baseColWidth="10" defaultRowHeight="16" x14ac:dyDescent="0.2"/>
@@ -592,7 +603,7 @@
         <v>1</v>
       </c>
       <c r="D2" s="2" t="s">
-        <v>29</v>
+        <v>28</v>
       </c>
       <c r="E2" s="2"/>
     </row>
@@ -610,7 +621,7 @@
         <v>3</v>
       </c>
       <c r="D4" s="4">
-        <v>45032</v>
+        <v>45033</v>
       </c>
       <c r="E4" s="2"/>
     </row>
@@ -641,7 +652,7 @@
         <v>8</v>
       </c>
       <c r="E7" s="2" t="s">
-        <v>28</v>
+        <v>33</v>
       </c>
     </row>
     <row r="8" spans="2:5" x14ac:dyDescent="0.2">
@@ -676,7 +687,7 @@
         <v>6</v>
       </c>
       <c r="E11" s="2" t="s">
-        <v>30</v>
+        <v>29</v>
       </c>
     </row>
     <row r="12" spans="2:5" x14ac:dyDescent="0.2">
@@ -700,7 +711,7 @@
         <v>9</v>
       </c>
       <c r="E14" s="2" t="s">
-        <v>32</v>
+        <v>31</v>
       </c>
     </row>
     <row r="15" spans="2:5" x14ac:dyDescent="0.2">
@@ -708,7 +719,7 @@
         <v>11</v>
       </c>
       <c r="E15" s="10" t="s">
-        <v>31</v>
+        <v>30</v>
       </c>
     </row>
     <row r="16" spans="2:5" x14ac:dyDescent="0.2">
@@ -716,7 +727,7 @@
         <v>13</v>
       </c>
       <c r="E16" s="8" t="s">
-        <v>33</v>
+        <v>32</v>
       </c>
     </row>
     <row r="17" spans="3:5" x14ac:dyDescent="0.2">
@@ -751,7 +762,7 @@
   <dimension ref="A1:G27"/>
   <sheetViews>
     <sheetView tabSelected="1" workbookViewId="0">
-      <selection activeCell="C13" sqref="C13:E27"/>
+      <selection activeCell="D19" sqref="D19"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr baseColWidth="10" defaultRowHeight="16" x14ac:dyDescent="0.2"/>
@@ -1036,10 +1047,10 @@
       <c r="D12" s="14">
         <v>119000</v>
       </c>
-      <c r="E12" s="13">
+      <c r="E12">
         <v>9999</v>
       </c>
-      <c r="F12" s="13">
+      <c r="F12">
         <v>236</v>
       </c>
       <c r="G12">
@@ -1048,13 +1059,52 @@
       </c>
     </row>
     <row r="13" spans="1:7" x14ac:dyDescent="0.2">
-      <c r="A13" s="11"/>
-      <c r="B13" s="12"/>
-      <c r="C13" s="12"/>
-      <c r="D13" s="14"/>
+      <c r="A13" s="11">
+        <v>2021</v>
+      </c>
+      <c r="B13" s="12" t="s">
+        <v>34</v>
+      </c>
+      <c r="C13" s="12" t="s">
+        <v>34</v>
+      </c>
+      <c r="D13" s="12" t="s">
+        <v>34</v>
+      </c>
+      <c r="E13">
+        <v>16170</v>
+      </c>
+      <c r="F13">
+        <v>537</v>
+      </c>
+      <c r="G13">
+        <f>F13/E13</f>
+        <v>3.3209647495361781E-2</v>
+      </c>
     </row>
     <row r="14" spans="1:7" x14ac:dyDescent="0.2">
-      <c r="D14" s="14"/>
+      <c r="A14" s="11">
+        <v>2022</v>
+      </c>
+      <c r="B14" s="12" t="s">
+        <v>34</v>
+      </c>
+      <c r="C14" s="12" t="s">
+        <v>34</v>
+      </c>
+      <c r="D14" s="12" t="s">
+        <v>34</v>
+      </c>
+      <c r="E14">
+        <v>7724</v>
+      </c>
+      <c r="F14">
+        <v>87</v>
+      </c>
+      <c r="G14">
+        <f>F14/E14</f>
+        <v>1.1263593992749871E-2</v>
+      </c>
     </row>
     <row r="15" spans="1:7" x14ac:dyDescent="0.2">
       <c r="C15" s="14"/>
